--- a/data/trans_bre/P1423-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -590,11 +604,13 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -619,17 +635,27 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4,02</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>1212,3%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>89,27%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>192,62%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>180,33%</t>
         </is>
       </c>
     </row>
@@ -657,24 +683,34 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,06; 8,65</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>-70,66; 670,87</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>-25,58; 1065,73</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-28,4; 911,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -699,17 +735,27 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>84,04%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>44,25%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>107,14%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>155,97%</t>
         </is>
       </c>
     </row>
@@ -737,24 +783,34 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,53; 7,3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>-7,59; 253,05</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>-22,54; 156,9</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>-16,85; 448,51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11,13; 577,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -779,17 +835,27 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>95,51%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>154,23%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>176,41%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21,2%</t>
         </is>
       </c>
     </row>
@@ -817,24 +883,34 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-1,99; 3,95</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>3,44; 238,43</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>59,74; 314,7</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>60,74; 401,93</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-26,83; 82,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -859,17 +935,27 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,02</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>273,17%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>181,23%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>190,1%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>126,45%</t>
         </is>
       </c>
     </row>
@@ -897,24 +983,34 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>3,49; 11,84</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>105,93; 601,06</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>81,23; 326,14</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>83,42; 361,83</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43,78; 448,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -939,17 +1035,27 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7,99</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>130,02%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>156,5%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>169,05%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>83,35%</t>
         </is>
       </c>
     </row>
@@ -977,24 +1083,34 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>4,27; 10,98</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>42,75; 265,78</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>71,06; 291,59</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>83,26; 324,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36,88; 139,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,28</t>
+          <t>14,26</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>221,13%</t>
+          <t>127,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>281,63%</t>
+          <t>267,29%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>498,49%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>118,22%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,07</t>
+          <t>2,46; 10,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 17,22</t>
+          <t>9,21; 19,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,73; 14,95</t>
+          <t>10,2; 19,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,8; 187,83</t>
+          <t>-1,07; 11,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>116,86; 393,29</t>
+          <t>30,8; 305,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>158,81; 476,21</t>
+          <t>103,35; 532,48</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>224,8; 1251,16</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-17,14; 278,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>145,93%</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>174,01%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>212,83%</t>
+          <t>177,97%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>152,46%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>80,16%</t>
         </is>
       </c>
     </row>
@@ -1122,53 +1268,164 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-2,16; 7,6</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 17,49</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 14,07</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 10,53</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-23,77; 166,53</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>51,6; 403,14</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>52,42; 338,74</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27,66; 155,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,25</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,93</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>145,93%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>174,01%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>212,83%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>95,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>3,38; 5,55</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>5,94; 8,46</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,69; 8,08</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 7,21</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>94,2; 210,06</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>125,35; 236,43</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>154,23; 286,66</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>56,61; 154,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P1423-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Edad-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,03</t>
+          <t>1,13; 4,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,24</t>
+          <t>-0,56; 2,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,23</t>
+          <t>0,1; 4,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 8,65</t>
+          <t>0,21; 8,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,66; 670,87</t>
+          <t>-58,75; 778,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 1065,73</t>
+          <t>-15,44; 1169,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 911,62</t>
+          <t>-31,45; 1132,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,49</t>
+          <t>-0,07; 3,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,53</t>
+          <t>-0,92; 3,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,89</t>
+          <t>-0,17; 2,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,3</t>
+          <t>0,4; 6,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 253,05</t>
+          <t>-11,25; 249,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 156,9</t>
+          <t>-27,2; 172,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 448,51</t>
+          <t>-17,32; 474,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,13; 577,32</t>
+          <t>6,42; 473,42</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,16</t>
+          <t>0,6; 5,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,52</t>
+          <t>3,17; 8,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,66</t>
+          <t>1,98; 6,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,95</t>
+          <t>-1,77; 4,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 238,43</t>
+          <t>12,09; 239,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,74; 314,7</t>
+          <t>60,98; 330,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,74; 401,93</t>
+          <t>51,36; 397,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 82,46</t>
+          <t>-25,03; 91,55</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,35</t>
+          <t>5,12; 11,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,19</t>
+          <t>4,95; 11,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,73</t>
+          <t>4,73; 10,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 11,84</t>
+          <t>3,62; 11,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>105,93; 601,06</t>
+          <t>119,44; 607,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,23; 326,14</t>
+          <t>82,0; 346,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,42; 361,83</t>
+          <t>81,08; 340,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,78; 448,54</t>
+          <t>43,87; 400,23</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 11,07</t>
+          <t>3,21; 11,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 15,91</t>
+          <t>6,86; 15,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 15,27</t>
+          <t>6,46; 15,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 10,98</t>
+          <t>4,52; 11,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,75; 265,78</t>
+          <t>38,84; 283,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,06; 291,59</t>
+          <t>74,65; 292,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,26; 324,38</t>
+          <t>71,45; 322,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,88; 139,65</t>
+          <t>37,57; 142,21</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 10,6</t>
+          <t>2,44; 10,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,21; 19,47</t>
+          <t>9,48; 19,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,2; 19,4</t>
+          <t>10,26; 19,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 11,97</t>
+          <t>-0,97; 11,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,8; 305,99</t>
+          <t>33,83; 304,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>103,35; 532,48</t>
+          <t>114,61; 580,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>224,8; 1251,16</t>
+          <t>235,97; 1243,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 278,31</t>
+          <t>-16,92; 279,64</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 7,6</t>
+          <t>-2,03; 7,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,09; 17,49</t>
+          <t>6,03; 17,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 14,07</t>
+          <t>4,24; 14,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,53</t>
+          <t>3,3; 10,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 166,53</t>
+          <t>-21,63; 186,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,6; 403,14</t>
+          <t>51,43; 408,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>52,42; 338,74</t>
+          <t>50,36; 352,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,66; 155,01</t>
+          <t>26,8; 148,76</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,55</t>
+          <t>3,44; 5,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,46</t>
+          <t>5,83; 8,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,08</t>
+          <t>5,78; 8,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,21</t>
+          <t>3,19; 6,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>94,2; 210,06</t>
+          <t>96,3; 209,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>125,35; 236,43</t>
+          <t>121,93; 235,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>154,23; 286,66</t>
+          <t>156,24; 293,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>56,61; 154,98</t>
+          <t>54,36; 143,15</t>
         </is>
       </c>
     </row>
